--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_no_show_condition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_no_show_condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC1C29-9DAE-7341-BE67-07434A0BE346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D286380-41B4-D344-84C8-B993104AFB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -2970,10 +2970,10 @@
     <t>caseworker-befta_master-solicitor</t>
   </si>
   <si>
-    <t>retainHiddenValue</t>
-  </si>
-  <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>RetainHiddenValue</t>
   </si>
 </sst>
 </file>
@@ -4812,31 +4812,6 @@
   </cellStyles>
   <dxfs count="304">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -7745,6 +7720,31 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -12054,117 +12054,117 @@
     <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="119"/>
     <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="118"/>
     <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="117"/>
-    <tableColumn id="18" xr3:uid="{E6D9041E-3243-5242-A159-5D8E6064F74D}" name="retainHiddenValue" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="116"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="115"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="114"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="113"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="112"/>
+    <tableColumn id="18" xr3:uid="{E6D9041E-3243-5242-A159-5D8E6064F74D}" name="RetainHiddenValue" dataDxfId="116"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12183,40 +12183,40 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12273,7 +12273,7 @@
     <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="241"/>
     <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="240"/>
     <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="239"/>
-    <tableColumn id="19" xr3:uid="{92BBD15A-9EFA-4147-B8FB-560988E8C8E6}" name="retainHiddenValue"/>
+    <tableColumn id="19" xr3:uid="{92BBD15A-9EFA-4147-B8FB-560988E8C8E6}" name="RetainHiddenValue"/>
     <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="238"/>
     <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="237"/>
     <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="236"/>
@@ -18485,8 +18485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18630,7 +18630,7 @@
         <v>227</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N3" s="58" t="s">
         <v>592</v>
@@ -41665,8 +41665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41786,7 +41786,7 @@
         <v>227</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="K3" s="58" t="s">
         <v>51</v>
@@ -41837,7 +41837,7 @@
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K4" s="81"/>
       <c r="L4" s="81"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_no_show_condition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_no_show_condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D286380-41B4-D344-84C8-B993104AFB88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BA9E2-E294-7F4E-8B32-563FA064E8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5723" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5719" uniqueCount="947">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2968,9 +2968,6 @@
   </si>
   <si>
     <t>caseworker-befta_master-solicitor</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>RetainHiddenValue</t>
@@ -3386,6 +3383,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -18485,8 +18483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18502,7 +18500,7 @@
     <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="22" style="7" customWidth="1"/>
+    <col min="12" max="12" width="47.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="16" customWidth="1"/>
     <col min="14" max="14" width="22" style="7" customWidth="1"/>
     <col min="15" max="15" width="36.5" style="20" bestFit="1" customWidth="1"/>
@@ -18630,7 +18628,7 @@
         <v>227</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N3" s="58" t="s">
         <v>592</v>
@@ -18721,9 +18719,7 @@
       </c>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
-      <c r="M5" s="81" t="s">
-        <v>838</v>
-      </c>
+      <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
       <c r="P5" s="62" t="s">
@@ -18763,9 +18759,7 @@
       </c>
       <c r="K6" s="81"/>
       <c r="L6" s="81"/>
-      <c r="M6" s="81" t="s">
-        <v>533</v>
-      </c>
+      <c r="M6" s="81"/>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
       <c r="P6" s="62" t="s">
@@ -18965,9 +18959,7 @@
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="81" t="s">
-        <v>838</v>
-      </c>
+      <c r="M11" s="81"/>
       <c r="N11" s="81"/>
       <c r="O11" s="81"/>
       <c r="P11" s="62" t="s">
@@ -35584,8 +35576,8 @@
   <dimension ref="A1:IO128"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41665,8 +41657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41786,7 +41778,7 @@
         <v>227</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K3" s="58" t="s">
         <v>51</v>
@@ -41836,9 +41828,7 @@
         <v>229</v>
       </c>
       <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
-        <v>946</v>
-      </c>
+      <c r="J4" s="62"/>
       <c r="K4" s="81"/>
       <c r="L4" s="81"/>
       <c r="M4" s="62" t="s">

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_no_show_condition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_no_show_condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BA9E2-E294-7F4E-8B32-563FA064E8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE7D7E-4369-B043-BF13-EB6931FB96C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CaseEvent!$A$21:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$IO$115</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5719" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="947">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -12193,7 +12202,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F48" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
@@ -18483,7 +18492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="88" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="88" workbookViewId="0">
       <selection activeCell="M5" sqref="M5:M11"/>
     </sheetView>
   </sheetViews>
@@ -32816,10 +32825,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK49"/>
+  <dimension ref="A1:EK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32966,13 +32975,13 @@
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="62" t="s">
-        <v>884</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>943</v>
+        <v>882</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>392</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>938</v>
+        <v>778</v>
       </c>
       <c r="F8" s="115" t="s">
         <v>339</v>
@@ -32986,8 +32995,8 @@
       <c r="C9" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>392</v>
+      <c r="D9" s="65" t="s">
+        <v>535</v>
       </c>
       <c r="E9" s="134" t="s">
         <v>778</v>
@@ -33001,11 +33010,11 @@
         <v>42736</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="62" t="s">
-        <v>882</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>535</v>
+      <c r="C10" s="65" t="s">
+        <v>883</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>392</v>
       </c>
       <c r="E10" s="134" t="s">
         <v>778</v>
@@ -33014,39 +33023,39 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="65" t="s">
+    <row r="11" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="118" t="s">
         <v>883</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>392</v>
+      <c r="D11" s="118" t="s">
+        <v>388</v>
       </c>
       <c r="E11" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="118" t="s">
+    <row r="12" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="120" t="s">
         <v>883</v>
       </c>
-      <c r="D12" s="118" t="s">
-        <v>388</v>
+      <c r="D12" s="120" t="s">
+        <v>373</v>
       </c>
       <c r="E12" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33059,7 +33068,7 @@
         <v>883</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>373</v>
+        <v>542</v>
       </c>
       <c r="E13" s="134" t="s">
         <v>778</v>
@@ -33077,7 +33086,7 @@
         <v>883</v>
       </c>
       <c r="D14" s="120" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E14" s="134" t="s">
         <v>778</v>
@@ -33086,39 +33095,174 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="120" t="s">
-        <v>883</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>544</v>
-      </c>
-      <c r="E15" s="134" t="s">
+    <row r="15" spans="1:141" s="292" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="344">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="337"/>
+      <c r="C15" s="293" t="s">
+        <v>924</v>
+      </c>
+      <c r="D15" s="293" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="366" t="s">
         <v>778</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="362" t="s">
         <v>339</v>
       </c>
+      <c r="G15" s="400"/>
+      <c r="H15" s="400"/>
+      <c r="I15" s="400"/>
+      <c r="J15" s="400"/>
+      <c r="K15" s="400"/>
+      <c r="L15" s="400"/>
+      <c r="M15" s="400"/>
+      <c r="N15" s="400"/>
+      <c r="O15" s="400"/>
+      <c r="P15" s="400"/>
+      <c r="Q15" s="400"/>
+      <c r="R15" s="400"/>
+      <c r="S15" s="400"/>
+      <c r="T15" s="400"/>
+      <c r="U15" s="400"/>
+      <c r="V15" s="400"/>
+      <c r="W15" s="400"/>
+      <c r="X15" s="400"/>
+      <c r="Y15" s="400"/>
+      <c r="Z15" s="400"/>
+      <c r="AA15" s="400"/>
+      <c r="AB15" s="400"/>
+      <c r="AC15" s="400"/>
+      <c r="AD15" s="400"/>
+      <c r="AE15" s="400"/>
+      <c r="AF15" s="400"/>
+      <c r="AG15" s="400"/>
+      <c r="AH15" s="400"/>
+      <c r="AI15" s="400"/>
+      <c r="AJ15" s="400"/>
+      <c r="AK15" s="400"/>
+      <c r="AL15" s="400"/>
+      <c r="AM15" s="400"/>
+      <c r="AN15" s="400"/>
+      <c r="AO15" s="400"/>
+      <c r="AP15" s="400"/>
+      <c r="AQ15" s="400"/>
+      <c r="AR15" s="400"/>
+      <c r="AS15" s="400"/>
+      <c r="AT15" s="400"/>
+      <c r="AU15" s="400"/>
+      <c r="AV15" s="400"/>
+      <c r="AW15" s="400"/>
+      <c r="AX15" s="400"/>
+      <c r="AY15" s="400"/>
+      <c r="AZ15" s="400"/>
+      <c r="BA15" s="400"/>
+      <c r="BB15" s="400"/>
+      <c r="BC15" s="400"/>
+      <c r="BD15" s="400"/>
+      <c r="BE15" s="400"/>
+      <c r="BF15" s="400"/>
+      <c r="BG15" s="400"/>
+      <c r="BH15" s="400"/>
+      <c r="BI15" s="400"/>
+      <c r="BJ15" s="400"/>
+      <c r="BK15" s="400"/>
+      <c r="BL15" s="400"/>
+      <c r="BM15" s="400"/>
+      <c r="BN15" s="400"/>
+      <c r="BO15" s="400"/>
+      <c r="BP15" s="400"/>
+      <c r="BQ15" s="400"/>
+      <c r="BR15" s="400"/>
+      <c r="BS15" s="400"/>
+      <c r="BT15" s="400"/>
+      <c r="BU15" s="400"/>
+      <c r="BV15" s="400"/>
+      <c r="BW15" s="400"/>
+      <c r="BX15" s="400"/>
+      <c r="BY15" s="400"/>
+      <c r="BZ15" s="400"/>
+      <c r="CA15" s="400"/>
+      <c r="CB15" s="400"/>
+      <c r="CC15" s="400"/>
+      <c r="CD15" s="400"/>
+      <c r="CE15" s="400"/>
+      <c r="CF15" s="400"/>
+      <c r="CG15" s="400"/>
+      <c r="CH15" s="400"/>
+      <c r="CI15" s="400"/>
+      <c r="CJ15" s="400"/>
+      <c r="CK15" s="400"/>
+      <c r="CL15" s="400"/>
+      <c r="CM15" s="400"/>
+      <c r="CN15" s="400"/>
+      <c r="CO15" s="400"/>
+      <c r="CP15" s="400"/>
+      <c r="CQ15" s="400"/>
+      <c r="CR15" s="400"/>
+      <c r="CS15" s="400"/>
+      <c r="CT15" s="400"/>
+      <c r="CU15" s="400"/>
+      <c r="CV15" s="400"/>
+      <c r="CW15" s="400"/>
+      <c r="CX15" s="400"/>
+      <c r="CY15" s="400"/>
+      <c r="CZ15" s="400"/>
+      <c r="DA15" s="400"/>
+      <c r="DB15" s="400"/>
+      <c r="DC15" s="400"/>
+      <c r="DD15" s="400"/>
+      <c r="DE15" s="400"/>
+      <c r="DF15" s="400"/>
+      <c r="DG15" s="400"/>
+      <c r="DH15" s="400"/>
+      <c r="DI15" s="400"/>
+      <c r="DJ15" s="400"/>
+      <c r="DK15" s="400"/>
+      <c r="DL15" s="400"/>
+      <c r="DM15" s="400"/>
+      <c r="DN15" s="400"/>
+      <c r="DO15" s="400"/>
+      <c r="DP15" s="400"/>
+      <c r="DQ15" s="400"/>
+      <c r="DR15" s="400"/>
+      <c r="DS15" s="400"/>
+      <c r="DT15" s="400"/>
+      <c r="DU15" s="400"/>
+      <c r="DV15" s="400"/>
+      <c r="DW15" s="400"/>
+      <c r="DX15" s="400"/>
+      <c r="DY15" s="400"/>
+      <c r="DZ15" s="400"/>
+      <c r="EA15" s="400"/>
+      <c r="EB15" s="400"/>
+      <c r="EC15" s="400"/>
+      <c r="ED15" s="400"/>
+      <c r="EE15" s="400"/>
+      <c r="EF15" s="400"/>
+      <c r="EG15" s="400"/>
+      <c r="EH15" s="400"/>
+      <c r="EI15" s="400"/>
+      <c r="EJ15" s="400"/>
+      <c r="EK15" s="400"/>
     </row>
     <row r="16" spans="1:141" s="292" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="344">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="337"/>
+      <c r="A16" s="286">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="289"/>
       <c r="C16" s="293" t="s">
         <v>924</v>
       </c>
       <c r="D16" s="293" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E16" s="366" t="s">
         <v>778</v>
       </c>
-      <c r="F16" s="362" t="s">
+      <c r="F16" s="294" t="s">
         <v>339</v>
       </c>
       <c r="G16" s="400"/>
@@ -33257,166 +33401,31 @@
       <c r="EJ16" s="400"/>
       <c r="EK16" s="400"/>
     </row>
-    <row r="17" spans="1:141" s="292" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="286">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="289"/>
-      <c r="C17" s="293" t="s">
-        <v>924</v>
-      </c>
-      <c r="D17" s="293" t="s">
-        <v>925</v>
-      </c>
-      <c r="E17" s="366" t="s">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="65" t="s">
+        <v>885</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F17" s="294" t="s">
+      <c r="F17" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="400"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="400"/>
-      <c r="J17" s="400"/>
-      <c r="K17" s="400"/>
-      <c r="L17" s="400"/>
-      <c r="M17" s="400"/>
-      <c r="N17" s="400"/>
-      <c r="O17" s="400"/>
-      <c r="P17" s="400"/>
-      <c r="Q17" s="400"/>
-      <c r="R17" s="400"/>
-      <c r="S17" s="400"/>
-      <c r="T17" s="400"/>
-      <c r="U17" s="400"/>
-      <c r="V17" s="400"/>
-      <c r="W17" s="400"/>
-      <c r="X17" s="400"/>
-      <c r="Y17" s="400"/>
-      <c r="Z17" s="400"/>
-      <c r="AA17" s="400"/>
-      <c r="AB17" s="400"/>
-      <c r="AC17" s="400"/>
-      <c r="AD17" s="400"/>
-      <c r="AE17" s="400"/>
-      <c r="AF17" s="400"/>
-      <c r="AG17" s="400"/>
-      <c r="AH17" s="400"/>
-      <c r="AI17" s="400"/>
-      <c r="AJ17" s="400"/>
-      <c r="AK17" s="400"/>
-      <c r="AL17" s="400"/>
-      <c r="AM17" s="400"/>
-      <c r="AN17" s="400"/>
-      <c r="AO17" s="400"/>
-      <c r="AP17" s="400"/>
-      <c r="AQ17" s="400"/>
-      <c r="AR17" s="400"/>
-      <c r="AS17" s="400"/>
-      <c r="AT17" s="400"/>
-      <c r="AU17" s="400"/>
-      <c r="AV17" s="400"/>
-      <c r="AW17" s="400"/>
-      <c r="AX17" s="400"/>
-      <c r="AY17" s="400"/>
-      <c r="AZ17" s="400"/>
-      <c r="BA17" s="400"/>
-      <c r="BB17" s="400"/>
-      <c r="BC17" s="400"/>
-      <c r="BD17" s="400"/>
-      <c r="BE17" s="400"/>
-      <c r="BF17" s="400"/>
-      <c r="BG17" s="400"/>
-      <c r="BH17" s="400"/>
-      <c r="BI17" s="400"/>
-      <c r="BJ17" s="400"/>
-      <c r="BK17" s="400"/>
-      <c r="BL17" s="400"/>
-      <c r="BM17" s="400"/>
-      <c r="BN17" s="400"/>
-      <c r="BO17" s="400"/>
-      <c r="BP17" s="400"/>
-      <c r="BQ17" s="400"/>
-      <c r="BR17" s="400"/>
-      <c r="BS17" s="400"/>
-      <c r="BT17" s="400"/>
-      <c r="BU17" s="400"/>
-      <c r="BV17" s="400"/>
-      <c r="BW17" s="400"/>
-      <c r="BX17" s="400"/>
-      <c r="BY17" s="400"/>
-      <c r="BZ17" s="400"/>
-      <c r="CA17" s="400"/>
-      <c r="CB17" s="400"/>
-      <c r="CC17" s="400"/>
-      <c r="CD17" s="400"/>
-      <c r="CE17" s="400"/>
-      <c r="CF17" s="400"/>
-      <c r="CG17" s="400"/>
-      <c r="CH17" s="400"/>
-      <c r="CI17" s="400"/>
-      <c r="CJ17" s="400"/>
-      <c r="CK17" s="400"/>
-      <c r="CL17" s="400"/>
-      <c r="CM17" s="400"/>
-      <c r="CN17" s="400"/>
-      <c r="CO17" s="400"/>
-      <c r="CP17" s="400"/>
-      <c r="CQ17" s="400"/>
-      <c r="CR17" s="400"/>
-      <c r="CS17" s="400"/>
-      <c r="CT17" s="400"/>
-      <c r="CU17" s="400"/>
-      <c r="CV17" s="400"/>
-      <c r="CW17" s="400"/>
-      <c r="CX17" s="400"/>
-      <c r="CY17" s="400"/>
-      <c r="CZ17" s="400"/>
-      <c r="DA17" s="400"/>
-      <c r="DB17" s="400"/>
-      <c r="DC17" s="400"/>
-      <c r="DD17" s="400"/>
-      <c r="DE17" s="400"/>
-      <c r="DF17" s="400"/>
-      <c r="DG17" s="400"/>
-      <c r="DH17" s="400"/>
-      <c r="DI17" s="400"/>
-      <c r="DJ17" s="400"/>
-      <c r="DK17" s="400"/>
-      <c r="DL17" s="400"/>
-      <c r="DM17" s="400"/>
-      <c r="DN17" s="400"/>
-      <c r="DO17" s="400"/>
-      <c r="DP17" s="400"/>
-      <c r="DQ17" s="400"/>
-      <c r="DR17" s="400"/>
-      <c r="DS17" s="400"/>
-      <c r="DT17" s="400"/>
-      <c r="DU17" s="400"/>
-      <c r="DV17" s="400"/>
-      <c r="DW17" s="400"/>
-      <c r="DX17" s="400"/>
-      <c r="DY17" s="400"/>
-      <c r="DZ17" s="400"/>
-      <c r="EA17" s="400"/>
-      <c r="EB17" s="400"/>
-      <c r="EC17" s="400"/>
-      <c r="ED17" s="400"/>
-      <c r="EE17" s="400"/>
-      <c r="EF17" s="400"/>
-      <c r="EG17" s="400"/>
-      <c r="EH17" s="400"/>
-      <c r="EI17" s="400"/>
-      <c r="EJ17" s="400"/>
-      <c r="EK17" s="400"/>
-    </row>
-    <row r="18" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="65" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D18" s="62" t="s">
         <v>392</v>
@@ -33428,7 +33437,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60">
         <v>42736</v>
       </c>
@@ -33437,7 +33446,7 @@
         <v>886</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="E19" s="134" t="s">
         <v>778</v>
@@ -33446,7 +33455,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60">
         <v>42736</v>
       </c>
@@ -33455,7 +33464,7 @@
         <v>886</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E20" s="134" t="s">
         <v>778</v>
@@ -33464,7 +33473,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60">
         <v>42736</v>
       </c>
@@ -33473,7 +33482,7 @@
         <v>886</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E21" s="134" t="s">
         <v>778</v>
@@ -33482,7 +33491,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60">
         <v>42736</v>
       </c>
@@ -33491,7 +33500,7 @@
         <v>886</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E22" s="134" t="s">
         <v>778</v>
@@ -33500,16 +33509,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60">
         <v>42736</v>
       </c>
       <c r="B23" s="81"/>
-      <c r="C23" s="65" t="s">
-        <v>886</v>
+      <c r="C23" s="62" t="s">
+        <v>887</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>552</v>
+        <v>392</v>
       </c>
       <c r="E23" s="134" t="s">
         <v>778</v>
@@ -33518,13 +33527,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60">
         <v>42736</v>
       </c>
       <c r="B24" s="81"/>
       <c r="C24" s="62" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>392</v>
@@ -33536,25 +33545,25 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="62" t="s">
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="68" t="s">
         <v>888</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>392</v>
+      <c r="D25" s="68" t="s">
+        <v>555</v>
       </c>
       <c r="E25" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="119" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66">
         <v>42736</v>
       </c>
@@ -33563,7 +33572,7 @@
         <v>888</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E26" s="134" t="s">
         <v>778</v>
@@ -33572,7 +33581,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66">
         <v>42736</v>
       </c>
@@ -33581,7 +33590,7 @@
         <v>888</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E27" s="134" t="s">
         <v>778</v>
@@ -33590,7 +33599,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66">
         <v>42736</v>
       </c>
@@ -33599,7 +33608,7 @@
         <v>888</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E28" s="134" t="s">
         <v>778</v>
@@ -33608,43 +33617,43 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="68" t="s">
-        <v>888</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>561</v>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="62" t="s">
+        <v>890</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>392</v>
       </c>
       <c r="E29" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F29" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="62" t="s">
-        <v>890</v>
-      </c>
-      <c r="D30" s="62" t="s">
+      <c r="F29" s="115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
+        <v>889</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>392</v>
       </c>
       <c r="E30" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F30" s="115" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66">
         <v>42736</v>
       </c>
@@ -33652,8 +33661,8 @@
       <c r="C31" s="84" t="s">
         <v>889</v>
       </c>
-      <c r="D31" s="65" t="s">
-        <v>392</v>
+      <c r="D31" s="118" t="s">
+        <v>563</v>
       </c>
       <c r="E31" s="134" t="s">
         <v>778</v>
@@ -33662,7 +33671,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66">
         <v>42736</v>
       </c>
@@ -33671,7 +33680,7 @@
         <v>889</v>
       </c>
       <c r="D32" s="118" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E32" s="134" t="s">
         <v>778</v>
@@ -33685,11 +33694,11 @@
         <v>42736</v>
       </c>
       <c r="B33" s="84"/>
-      <c r="C33" s="84" t="s">
-        <v>889</v>
-      </c>
-      <c r="D33" s="118" t="s">
-        <v>567</v>
+      <c r="C33" s="65" t="s">
+        <v>891</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>392</v>
       </c>
       <c r="E33" s="134" t="s">
         <v>778</v>
@@ -33703,14 +33712,14 @@
         <v>42736</v>
       </c>
       <c r="B34" s="84"/>
-      <c r="C34" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D34" s="68" t="s">
+      <c r="C34" s="68" t="s">
+        <v>894</v>
+      </c>
+      <c r="D34" s="82" t="s">
         <v>392</v>
       </c>
-      <c r="E34" s="134" t="s">
-        <v>778</v>
+      <c r="E34" s="84" t="s">
+        <v>779</v>
       </c>
       <c r="F34" s="119" t="s">
         <v>339</v>
@@ -33725,13 +33734,13 @@
         <v>894</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>779</v>
       </c>
       <c r="F35" s="119" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33743,13 +33752,13 @@
         <v>894</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F36" s="119" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33761,16 +33770,16 @@
         <v>894</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>780</v>
       </c>
       <c r="F37" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66">
         <v>42736</v>
       </c>
@@ -33778,14 +33787,14 @@
       <c r="C38" s="68" t="s">
         <v>894</v>
       </c>
-      <c r="D38" s="82" t="s">
-        <v>393</v>
+      <c r="D38" s="68" t="s">
+        <v>394</v>
       </c>
       <c r="E38" s="84" t="s">
         <v>780</v>
       </c>
       <c r="F38" s="119" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33800,7 +33809,7 @@
         <v>394</v>
       </c>
       <c r="E39" s="84" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F39" s="119" t="s">
         <v>340</v>
@@ -33811,20 +33820,20 @@
         <v>42736</v>
       </c>
       <c r="B40" s="84"/>
-      <c r="C40" s="68" t="s">
-        <v>894</v>
+      <c r="C40" s="65" t="s">
+        <v>892</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>779</v>
+        <v>392</v>
+      </c>
+      <c r="E40" s="134" t="s">
+        <v>778</v>
       </c>
       <c r="F40" s="119" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66">
         <v>42736</v>
       </c>
@@ -33833,7 +33842,7 @@
         <v>892</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="E41" s="134" t="s">
         <v>778</v>
@@ -33843,20 +33852,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="65" t="s">
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="90"/>
+      <c r="C42" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="D42" s="68" t="s">
-        <v>731</v>
-      </c>
-      <c r="E42" s="134" t="s">
+      <c r="D42" s="86" t="s">
+        <v>734</v>
+      </c>
+      <c r="E42" s="195" t="s">
         <v>778</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="125" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33864,12 +33873,12 @@
       <c r="A43" s="71">
         <v>42736</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="73" t="s">
-        <v>892</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>734</v>
+      <c r="B43" s="69"/>
+      <c r="C43" s="65" t="s">
+        <v>893</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>836</v>
       </c>
       <c r="E43" s="195" t="s">
         <v>778</v>
@@ -33887,7 +33896,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E44" s="195" t="s">
         <v>778</v>
@@ -33905,7 +33914,7 @@
         <v>893</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E45" s="195" t="s">
         <v>778</v>
@@ -33918,12 +33927,12 @@
       <c r="A46" s="71">
         <v>42736</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="D46" s="82" t="s">
-        <v>841</v>
+      <c r="D46" s="88" t="s">
+        <v>843</v>
       </c>
       <c r="E46" s="195" t="s">
         <v>778</v>
@@ -33933,56 +33942,38 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="65" t="s">
-        <v>893</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>843</v>
-      </c>
-      <c r="E47" s="195" t="s">
-        <v>778</v>
-      </c>
-      <c r="F47" s="125" t="s">
+      <c r="A47" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="430"/>
+      <c r="C47" s="73" t="s">
+        <v>884</v>
+      </c>
+      <c r="D47" s="265" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="F47" s="266" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="263">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="430"/>
-      <c r="C48" s="73" t="s">
+      <c r="A48" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="D48" s="265" t="s">
-        <v>392</v>
+      <c r="D48" s="65" t="s">
+        <v>943</v>
       </c>
       <c r="E48" s="429" t="s">
         <v>945</v>
       </c>
-      <c r="F48" s="266" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="62" t="s">
-        <v>884</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>943</v>
-      </c>
-      <c r="E49" s="429" t="s">
-        <v>945</v>
-      </c>
-      <c r="F49" s="115" t="s">
+      <c r="F48" s="115" t="s">
         <v>339</v>
       </c>
     </row>
